--- a/mko/mko_import_reaction.xlsx
+++ b/mko/mko_import_reaction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vickenlee\Documents\GitHub\BuildGEM\mko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2EBB69-00E9-4341-B631-D4149735F3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BBAFAD-957A-4536-9A59-12A8F4D118DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -383,1069 +383,1070 @@
     <t>GLUKA</t>
   </si>
   <si>
+    <t>PGCM</t>
+  </si>
+  <si>
+    <t>Phosphoglucomutase</t>
+  </si>
+  <si>
+    <t>g1p_c &lt;--&gt; g6p_A_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPDK</t>
+  </si>
+  <si>
+    <t>Pyruvate,phosphate dikinase.</t>
+  </si>
+  <si>
+    <t>PPS</t>
+  </si>
+  <si>
+    <t>Phosphoenolpyruvate synthase</t>
+  </si>
+  <si>
+    <t>ALCD2x</t>
+  </si>
+  <si>
+    <t>Alcohol dehydrogenase (ethanol)</t>
+  </si>
+  <si>
+    <t>atp_c + pi_c + pyr_c &lt;--&gt; amp_c + h_c + pep_c + ppi_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp_c + h2o_c + pyr_c &lt;--&gt; amp_c + 2.0 h_c + pep_c + pi_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etoh_c + nad_c &lt;--&gt; acald_c + h_c + nadh_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALCD2y</t>
+  </si>
+  <si>
+    <t>Alcohol dehydrogenase (ethanol, NADP)</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>Acetyl-CoA synthetase</t>
+  </si>
+  <si>
+    <t>ac_c + atp_c + coa_c --&gt; accoa_c + amp_c + ppi_c</t>
+  </si>
+  <si>
+    <t>etoh_c + nadp_c &lt;--&gt; acald_c + h_c + nadph_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucokinase/hexokinase (glc-A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLUK_syn</t>
+  </si>
+  <si>
+    <t>Glucokinase</t>
+  </si>
+  <si>
+    <t>h_c + pyr_c + thmpp_c --&gt; 2ahethmpp_c + co2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3pg_c &lt;--&gt; 2pg_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2o_c + 6pgl_c --&gt; 6pgc_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nadp_c+ 6pgc_c --&gt; co2_c + nadph_c + ru5p__D_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adp_c + 13dpg_c &lt;--&gt; 3pg_c + atp_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDHbr</t>
+  </si>
+  <si>
+    <t>Pyruvate dehydrogenase (dihydrolipoamide)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adhlam_c + coa_c &lt;--&gt; accoa_c + dhlam_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2ahethmpp_c + lpam_c --&gt; thmpp_c +  adhlam_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDHa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDHa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pyruvate dehydrogenase (lipoamide)</t>
+  </si>
+  <si>
+    <t>KEGG_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhlam_c + nad_c &lt;--&gt; lpam_c + nadh_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dihydrolipoamide dehydrogenase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R07618</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00959</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01786</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R04780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R05605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R05338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R05339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00519</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R08060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R08059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R08058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R09518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menylh4mpt_c + h2o_c &lt;--&gt; f5h4mpt_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmfr_c + h2o_c &lt;--&gt; for_c + mfr_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h4mpt_c + fald_c --&gt; mleneh4mpt_c + h2o_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formylmethanofuran dehydrogenase</t>
+  </si>
+  <si>
+    <t>formylmethanofuran:ferredoxin oxidoreductase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWDf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formmfr_c + h4mpt_c &lt;--&gt; f5h4mpt_c + mfr_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">co2_c + mfr_c + 2 fdxrd_c +2 h_c --&gt; formmfr_c + h2o_c + 2 fdxox_c </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mleneh4mpt_c + nadp_c --&gt; menylh4mpt_c + nadph_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ser__L_c + h4mpt_c --&gt; mleneh4mpt_c + h2o_c + gly_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glycine hydroxymethyltransferase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R09099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coa_c + 2.0 fdxox_c + pyr_c &lt;--&gt; accoa_c + co2_c + 2.0 fdxrd_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ser__L_c + thf_c &lt;--&gt; gly_c + h2o_c + mlthf_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHMT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>co2_c + h2o_c + pep_c --&gt; h_c + oaa_c + pi_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphoenolpyruvate carboxylase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h_c + nadh_c + oaa_c &lt;--&gt; mal__L_c + nad_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malate CoA ligase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mal__L_c + atp_c --&gt; adp_c + pi_c + mlcoa_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlcoa_c --&gt; accoa_c + glx_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L-malyl-CoA glyoxylate-lyase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLCOAly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACOAli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLYCK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R08572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R04173</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00582</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malate dehydrogenase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPT_syn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serine-glyoxilate aminotransferase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glx_c + ser__L_c --&gt; gly_c + hpyr_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GHMT2r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycine hydroxymethyltransferase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glycerate kinase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp_c + glyc__R_c --&gt; 2pg_c + adp_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphoglycerate dehydrogenase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3pg_c + nad_c --&gt; 3php_c + h_c + nadh_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphoserine transaminase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3php_c + glu__L_c --&gt; akg_c + pser__L_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSP_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphoserine phosphatase (L-serine)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h2o_c + pser__L_c --&gt; pi_c + ser__L_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">accoa_c + amp_c + ppi_c &lt;--&gt; ac_c + atp_c + coa_c </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accoa_c + pi_c --&gt; actp_c + coa_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acetyl-CoA synthetase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTAr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phosphotransacetylase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACKr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acetate kinase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ac_c + atp_c --&gt; actp_c + adp_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Pyruvate carboxylase</t>
+  </si>
+  <si>
+    <t>atp_c + hco3_c + pyr_c --&gt; adp_c + h_c + oaa_c + pi_c</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Citrate synthase</t>
+  </si>
+  <si>
+    <t>accoa_c + h2o_c + oaa_c &lt;--&gt; cit_c + coa_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACONTb</t>
+  </si>
+  <si>
+    <t>Aconitase (half-reaction B, Isocitrate hydro-lyase)</t>
+  </si>
+  <si>
+    <t>ACONTa</t>
+  </si>
+  <si>
+    <t>Aconitase (half-reaction A, Citrate hydro-lyase)</t>
+  </si>
+  <si>
+    <t>cit_c &lt;--&gt; acon_C_c + h2o_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acon_C_c + h2o_c &lt;--&gt; icit_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0422</t>
+  </si>
+  <si>
+    <t>Isocitrate:NADP+ oxidoreductase (decarboxylating) Citrate cycle (TCA cycle) EC:1.1.1.42</t>
+  </si>
+  <si>
+    <t>icit_c + nadp_c &lt;--&gt; HC01434_c + h_c + nadph_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDHx</t>
+  </si>
+  <si>
+    <t>Isocitrate dehydrogenase (NAD)</t>
+  </si>
+  <si>
+    <t>icit_c + nad_c &lt;--&gt; akg_c + co2_c + nadh_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r0082</t>
+  </si>
+  <si>
+    <t>Oxalosuccinate:NADP+ oxidoreductase (decarboxylating) Citrate cycle (TCA cycle) EC:1.1.1.42</t>
+  </si>
+  <si>
+    <t>HC01434_c + h_c &lt;--&gt; akg_c + co2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCOAS</t>
+  </si>
+  <si>
+    <t>Succinyl-CoA synthetase (ADP-forming)</t>
+  </si>
+  <si>
+    <t>atp_c + coa_c + succ_c &lt;--&gt; adp_c + pi_c + succoa_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUM</t>
+  </si>
+  <si>
+    <t>Fumarase</t>
+  </si>
+  <si>
+    <t>fum_c + h2o_c &lt;--&gt; mal__L_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Succinate dehydrogenase (ubiquinone)</t>
+  </si>
+  <si>
+    <t>succoa_c + 2 q8_c &lt;--&gt; 2 q8h2_c + fum_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxoglutarate dehydrogenase (lipoamide)</t>
+  </si>
+  <si>
+    <t>sdhlam_c + coa_c &lt;--&gt;  succoa_c + dhlam_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKGDb</t>
+  </si>
+  <si>
+    <t>Oxoglutarate dehydrogenase (dihydrolipoamide S-succinyltransferase)</t>
+  </si>
+  <si>
+    <t>h_c + akg_c + thmpp_c --&gt; HC01435_c + co2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC01435_c + lpam_c --&gt; thmpp_c +  sdhlam_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKGDa1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKGDa2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R02570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCA cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GALUi</t>
+  </si>
+  <si>
+    <t>UTP-glucose-1-phosphate uridylyltransferase (irreversible)</t>
+  </si>
+  <si>
+    <t>UDPGD</t>
+  </si>
+  <si>
+    <t>UDPglucose 6-dehydrogenase</t>
+  </si>
+  <si>
+    <t>XYLOR</t>
+  </si>
+  <si>
+    <t>D-xylose:NADP+ 1-oxidoreductase</t>
+  </si>
+  <si>
+    <t>h2o_c + 2.0 nad_c + udpg_c &lt;--&gt; 3.0 h_c + 2.0 nadh_c + udpglcur_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nadp_c + xyl__D_c --&gt; h_c + nadph_c + xylnact__D_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1p_c + h_c + utp_c --&gt; ppi_c + udpg_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00286</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R01430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Glycolysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methane metabolism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDH1</t>
+  </si>
+  <si>
+    <t>Glutamate dehydrogenase (NAD)</t>
+  </si>
+  <si>
+    <t>GLUSy</t>
+  </si>
+  <si>
+    <t>Glutamate synthase (NADPH)</t>
+  </si>
+  <si>
+    <t>akg_c + gln__L_c + h_c + nadph_c --&gt; 2.0 glu__L_c + nadp_c</t>
+  </si>
+  <si>
+    <t>NTRIR2y</t>
+  </si>
+  <si>
+    <t>Nitrite Reductase (NADPH)</t>
+  </si>
+  <si>
+    <t>5.0 h_c + 3.0 nadph_c + no2_c --&gt; 2.0 h2o_c + 3.0 nadp_c + nh4_c</t>
+  </si>
+  <si>
+    <t>HAMR</t>
+  </si>
+  <si>
+    <t>Hydroxylamine reductase</t>
+  </si>
+  <si>
+    <t>NTRIR2x</t>
+  </si>
+  <si>
+    <t>R00114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLNS</t>
+  </si>
+  <si>
+    <t>Glutamine synthetase</t>
+  </si>
+  <si>
+    <t>atp_c + glu__L_c + nh4_c --&gt; adp_c + gln__L_c + h_c + pi_c</t>
+  </si>
+  <si>
+    <t>R00253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glu__L_c + h2o_c + nad_c &lt;--&gt; akg_c +  h_c + nadh_c + nh4_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0 h_c + 3.0 nadh_c + no2_c --&gt; 2.0 h2o_c + 3.0 nad_c + nh4_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO3R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrate reductase (Cytochrome c)</t>
+  </si>
+  <si>
+    <t>NO3tex</t>
+  </si>
+  <si>
+    <t>Nitrate transport via diffusion (e to p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no3_e --&gt; no3_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO3t2pp</t>
+  </si>
+  <si>
+    <t>Nitrate transport in via proton symport (periplasm)</t>
+  </si>
+  <si>
+    <t>no3_p + h_p &lt;--&gt; no3_c + h_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrite Reductase (NADH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 h_c + ham_c + nadh_c --&gt; h2o_c + nad_c + nh4_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ammonia monooxygenase</t>
+  </si>
+  <si>
+    <t>AMMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nh4_c + o2_c + q8h2_p --&gt; ham_c + h2o_c + q8_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO2t2rpp</t>
+  </si>
+  <si>
+    <t>h_c + no2_c &lt;--&gt; h_p + no2_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrite transport in via proton symport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NITR_NO</t>
+  </si>
+  <si>
+    <t>Nitrite reductase (NO-forming)</t>
+  </si>
+  <si>
+    <t>2.0 focytC_m + 4.0 h_c + no3_c --&gt; 2.0 ficytC_m + h2o_c + 2.0 h_p + no2_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4_p + o2_p + q8h2_m --&gt; meoh_p + h2o_p + q8_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORZpp</t>
+  </si>
+  <si>
+    <t>focytC_p + 2.0 h_p + no2_p --&gt; ficytC_p + h2o_p + no_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitric Oxide reductase (N2O forming)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focytC_p + 2.0 no_p --&gt; h2o_p + ficytC_p  + n2o_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meoh_p + 2 ficytC_p --&gt; fald_p + 2 focytC_p + 2 h_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00783</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00294</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00798</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIT1b</t>
+  </si>
+  <si>
+    <t>Nitrogenase</t>
+  </si>
+  <si>
+    <t>16 atp_c + 4 fdxrd_c + 16.0 h2o_c + n2_c --&gt; 16.0 adp_c + 4.0 fdxox_c + h2_c + 6.0 h_c + 2.0 nh4_c + 16.0 pi_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2tr</t>
+  </si>
+  <si>
+    <t>N2 transport via diffusion (e to c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2_e &lt;--&gt; ne_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R05185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYNL</t>
+  </si>
+  <si>
+    <t>cynt_c + h_c + hco3_c --&gt; cbm_c + co2_c</t>
+  </si>
+  <si>
+    <t>Cyanate lyase</t>
+  </si>
+  <si>
+    <t>HCO3E</t>
+  </si>
+  <si>
+    <t>HCO3 equilibration reaction</t>
+  </si>
+  <si>
+    <t>co2_c + h2o_c --&gt; h_c + hco3_c</t>
+  </si>
+  <si>
+    <t>R10092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R03546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Glc_aD_c + atp_c --&gt; adp_c + g6p_A_c + h_c</t>
-  </si>
-  <si>
-    <t>PGCM</t>
-  </si>
-  <si>
-    <t>Phosphoglucomutase</t>
-  </si>
-  <si>
-    <t>g1p_c &lt;--&gt; g6p_A_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPDK</t>
-  </si>
-  <si>
-    <t>Pyruvate,phosphate dikinase.</t>
-  </si>
-  <si>
-    <t>PPS</t>
-  </si>
-  <si>
-    <t>Phosphoenolpyruvate synthase</t>
-  </si>
-  <si>
-    <t>ALCD2x</t>
-  </si>
-  <si>
-    <t>Alcohol dehydrogenase (ethanol)</t>
-  </si>
-  <si>
-    <t>atp_c + pi_c + pyr_c &lt;--&gt; amp_c + h_c + pep_c + ppi_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atp_c + h2o_c + pyr_c &lt;--&gt; amp_c + 2.0 h_c + pep_c + pi_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etoh_c + nad_c &lt;--&gt; acald_c + h_c + nadh_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALCD2y</t>
-  </si>
-  <si>
-    <t>Alcohol dehydrogenase (ethanol, NADP)</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
-    <t>Acetyl-CoA synthetase</t>
-  </si>
-  <si>
-    <t>ac_c + atp_c + coa_c --&gt; accoa_c + amp_c + ppi_c</t>
-  </si>
-  <si>
-    <t>etoh_c + nadp_c &lt;--&gt; acald_c + h_c + nadph_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucokinase/hexokinase (glc-A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLUK_syn</t>
-  </si>
-  <si>
-    <t>Glucokinase</t>
-  </si>
-  <si>
-    <t>Glc_bD_c + atp_c --&gt; adp_c + g6p_B_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_c + pyr_c + thmpp_c --&gt; 2ahethmpp_c + co2_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pg_c &lt;--&gt; 2pg_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2o_c + 6pgl_c --&gt; 6pgc_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nadp_c+ 6pgc_c --&gt; co2_c + nadph_c + ru5p__D_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adp_c + 13dpg_c &lt;--&gt; 3pg_c + atp_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDHbr</t>
-  </si>
-  <si>
-    <t>Pyruvate dehydrogenase (dihydrolipoamide)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adhlam_c + coa_c &lt;--&gt; accoa_c + dhlam_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2ahethmpp_c + lpam_c --&gt; thmpp_c +  adhlam_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDHa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDHa2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pyruvate dehydrogenase (lipoamide)</t>
-  </si>
-  <si>
-    <t>KEGG_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dhlam_c + nad_c &lt;--&gt; lpam_c + nadh_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dihydrolipoamide dehydrogenase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R07618</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00959</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01786</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R04780</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00658</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01518</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02739</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02740</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01827</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R05605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01528</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02736</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R05338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R05339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00519</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R08060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03464</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R08059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R08058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R09518</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menylh4mpt_c + h2o_c &lt;--&gt; f5h4mpt_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmfr_c + h2o_c &lt;--&gt; for_c + mfr_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h4mpt_c + fald_c --&gt; mleneh4mpt_c + h2o_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03390</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formylmethanofuran dehydrogenase</t>
-  </si>
-  <si>
-    <t>formylmethanofuran:ferredoxin oxidoreductase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FWDf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>formmfr_c + h4mpt_c &lt;--&gt; f5h4mpt_c + mfr_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">co2_c + mfr_c + 2 fdxrd_c +2 h_c --&gt; formmfr_c + h2o_c + 2 fdxox_c </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mleneh4mpt_c + nadp_c --&gt; menylh4mpt_c + nadph_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ser__L_c + h4mpt_c --&gt; mleneh4mpt_c + h2o_c + gly_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glycine hydroxymethyltransferase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R09099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coa_c + 2.0 fdxox_c + pyr_c &lt;--&gt; accoa_c + co2_c + 2.0 fdxrd_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ser__L_c + thf_c &lt;--&gt; gly_c + h2o_c + mlthf_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHMT1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>co2_c + h2o_c + pep_c --&gt; h_c + oaa_c + pi_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phosphoenolpyruvate carboxylase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h_c + nadh_c + oaa_c &lt;--&gt; mal__L_c + nad_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>malate CoA ligase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mal__L_c + atp_c --&gt; adp_c + pi_c + mlcoa_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mlcoa_c --&gt; accoa_c + glx_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L-malyl-CoA glyoxylate-lyase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLCOAly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACOAli</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLYCK2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00473</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00588</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00945</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R08572</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R04173</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00582</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Malate dehydrogenase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPT_syn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serine-glyoxilate aminotransferase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glx_c + ser__L_c --&gt; gly_c + hpyr_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GHMT2r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glycine hydroxymethyltransferase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glycerate kinase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atp_c + glyc__R_c --&gt; 2pg_c + adp_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phosphoglycerate dehydrogenase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3pg_c + nad_c --&gt; 3php_c + h_c + nadh_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phosphoserine transaminase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3php_c + glu__L_c --&gt; akg_c + pser__L_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSP_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phosphoserine phosphatase (L-serine)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h2o_c + pser__L_c --&gt; pi_c + ser__L_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">accoa_c + amp_c + ppi_c &lt;--&gt; ac_c + atp_c + coa_c </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accoa_c + pi_c --&gt; actp_c + coa_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00315</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acetyl-CoA synthetase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTAr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phosphotransacetylase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACKr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acetate kinase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ac_c + atp_c --&gt; actp_c + adp_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>Pyruvate carboxylase</t>
-  </si>
-  <si>
-    <t>atp_c + hco3_c + pyr_c --&gt; adp_c + h_c + oaa_c + pi_c</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Citrate synthase</t>
-  </si>
-  <si>
-    <t>accoa_c + h2o_c + oaa_c &lt;--&gt; cit_c + coa_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACONTb</t>
-  </si>
-  <si>
-    <t>Aconitase (half-reaction B, Isocitrate hydro-lyase)</t>
-  </si>
-  <si>
-    <t>ACONTa</t>
-  </si>
-  <si>
-    <t>Aconitase (half-reaction A, Citrate hydro-lyase)</t>
-  </si>
-  <si>
-    <t>cit_c &lt;--&gt; acon_C_c + h2o_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acon_C_c + h2o_c &lt;--&gt; icit_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r0422</t>
-  </si>
-  <si>
-    <t>Isocitrate:NADP+ oxidoreductase (decarboxylating) Citrate cycle (TCA cycle) EC:1.1.1.42</t>
-  </si>
-  <si>
-    <t>icit_c + nadp_c &lt;--&gt; HC01434_c + h_c + nadph_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICDHx</t>
-  </si>
-  <si>
-    <t>Isocitrate dehydrogenase (NAD)</t>
-  </si>
-  <si>
-    <t>icit_c + nad_c &lt;--&gt; akg_c + co2_c + nadh_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r0082</t>
-  </si>
-  <si>
-    <t>Oxalosuccinate:NADP+ oxidoreductase (decarboxylating) Citrate cycle (TCA cycle) EC:1.1.1.42</t>
-  </si>
-  <si>
-    <t>HC01434_c + h_c &lt;--&gt; akg_c + co2_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCOAS</t>
-  </si>
-  <si>
-    <t>Succinyl-CoA synthetase (ADP-forming)</t>
-  </si>
-  <si>
-    <t>atp_c + coa_c + succ_c &lt;--&gt; adp_c + pi_c + succoa_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUM</t>
-  </si>
-  <si>
-    <t>Fumarase</t>
-  </si>
-  <si>
-    <t>fum_c + h2o_c &lt;--&gt; mal__L_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00405</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00268</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00709</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01325</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCDH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Succinate dehydrogenase (ubiquinone)</t>
-  </si>
-  <si>
-    <t>succoa_c + 2 q8_c &lt;--&gt; 2 q8h2_c + fum_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oxoglutarate dehydrogenase (lipoamide)</t>
-  </si>
-  <si>
-    <t>sdhlam_c + coa_c &lt;--&gt;  succoa_c + dhlam_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AKGDb</t>
-  </si>
-  <si>
-    <t>Oxoglutarate dehydrogenase (dihydrolipoamide S-succinyltransferase)</t>
-  </si>
-  <si>
-    <t>h_c + akg_c + thmpp_c --&gt; HC01435_c + co2_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC01435_c + lpam_c --&gt; thmpp_c +  sdhlam_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AKGDa1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AKGDa2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00621</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03316</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R02570</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCA cycle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GALUi</t>
-  </si>
-  <si>
-    <t>UTP-glucose-1-phosphate uridylyltransferase (irreversible)</t>
-  </si>
-  <si>
-    <t>UDPGD</t>
-  </si>
-  <si>
-    <t>UDPglucose 6-dehydrogenase</t>
-  </si>
-  <si>
-    <t>XYLOR</t>
-  </si>
-  <si>
-    <t>D-xylose:NADP+ 1-oxidoreductase</t>
-  </si>
-  <si>
-    <t>h2o_c + 2.0 nad_c + udpg_c &lt;--&gt; 3.0 h_c + 2.0 nadh_c + udpglcur_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nadp_c + xyl__D_c --&gt; h_c + nadph_c + xylnact__D_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g1p_c + h_c + utp_c --&gt; ppi_c + udpg_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00289</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00286</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R01430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Glycolysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDH1</t>
-  </si>
-  <si>
-    <t>Glutamate dehydrogenase (NAD)</t>
-  </si>
-  <si>
-    <t>GLUSy</t>
-  </si>
-  <si>
-    <t>Glutamate synthase (NADPH)</t>
-  </si>
-  <si>
-    <t>akg_c + gln__L_c + h_c + nadph_c --&gt; 2.0 glu__L_c + nadp_c</t>
-  </si>
-  <si>
-    <t>NTRIR2y</t>
-  </si>
-  <si>
-    <t>Nitrite Reductase (NADPH)</t>
-  </si>
-  <si>
-    <t>5.0 h_c + 3.0 nadph_c + no2_c --&gt; 2.0 h2o_c + 3.0 nadp_c + nh4_c</t>
-  </si>
-  <si>
-    <t>HAMR</t>
-  </si>
-  <si>
-    <t>Hydroxylamine reductase</t>
-  </si>
-  <si>
-    <t>NTRIR2x</t>
-  </si>
-  <si>
-    <t>R00114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLNS</t>
-  </si>
-  <si>
-    <t>Glutamine synthetase</t>
-  </si>
-  <si>
-    <t>atp_c + glu__L_c + nh4_c --&gt; adp_c + gln__L_c + h_c + pi_c</t>
-  </si>
-  <si>
-    <t>R00253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glu__L_c + h2o_c + nad_c &lt;--&gt; akg_c +  h_c + nadh_c + nh4_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00787</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.0 h_c + 3.0 nadh_c + no2_c --&gt; 2.0 h2o_c + 3.0 nad_c + nh4_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO3R3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nitrate reductase (Cytochrome c)</t>
-  </si>
-  <si>
-    <t>NO3tex</t>
-  </si>
-  <si>
-    <t>Nitrate transport via diffusion (e to p)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no3_e --&gt; no3_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO3t2pp</t>
-  </si>
-  <si>
-    <t>Nitrate transport in via proton symport (periplasm)</t>
-  </si>
-  <si>
-    <t>no3_p + h_p &lt;--&gt; no3_c + h_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nitrite Reductase (NADH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0 h_c + ham_c + nadh_c --&gt; h2o_c + nad_c + nh4_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ammonia monooxygenase</t>
-  </si>
-  <si>
-    <t>AMMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nh4_c + o2_c + q8h2_p --&gt; ham_c + h2o_c + q8_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO2t2rpp</t>
-  </si>
-  <si>
-    <t>h_c + no2_c &lt;--&gt; h_p + no2_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nitrite transport in via proton symport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NITR_NO</t>
-  </si>
-  <si>
-    <t>Nitrite reductase (NO-forming)</t>
-  </si>
-  <si>
-    <t>2.0 focytC_m + 4.0 h_c + no3_c --&gt; 2.0 ficytC_m + h2o_c + 2.0 h_p + no2_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4_p + o2_p + q8h2_m --&gt; meoh_p + h2o_p + q8_m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NORZpp</t>
-  </si>
-  <si>
-    <t>focytC_p + 2.0 h_p + no2_p --&gt; ficytC_p + h2o_p + no_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nitric Oxide reductase (N2O forming)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>focytC_p + 2.0 no_p --&gt; h2o_p + ficytC_p  + n2o_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meoh_p + 2 ficytC_p --&gt; fald_p + 2 focytC_p + 2 h_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00783</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00294</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00148</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R00243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIT1b</t>
-  </si>
-  <si>
-    <t>Nitrogenase</t>
-  </si>
-  <si>
-    <t>16 atp_c + 4 fdxrd_c + 16.0 h2o_c + n2_c --&gt; 16.0 adp_c + 4.0 fdxox_c + h2_c + 6.0 h_c + 2.0 nh4_c + 16.0 pi_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N2tr</t>
-  </si>
-  <si>
-    <t>N2 transport via diffusion (e to c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n2_e &lt;--&gt; ne_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R05185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYNL</t>
-  </si>
-  <si>
-    <t>cynt_c + h_c + hco3_c --&gt; cbm_c + co2_c</t>
-  </si>
-  <si>
-    <t>Cyanate lyase</t>
-  </si>
-  <si>
-    <t>HCO3E</t>
-  </si>
-  <si>
-    <t>HCO3 equilibration reaction</t>
-  </si>
-  <si>
-    <t>co2_c + h2o_c --&gt; h_c + hco3_c</t>
-  </si>
-  <si>
-    <t>R10092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R03546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glc__bD_c + atp_c --&gt; adp_c + g6p_B_c + h_c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1453,7 +1454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1490,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1537,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1552,6 +1561,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,7 +1848,7 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,45 +1873,45 @@
         <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1920,13 +1932,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1937,13 +1949,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1954,13 +1966,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,47 +1983,47 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2025,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2042,10 +2054,10 @@
         <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2059,248 +2071,248 @@
         <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2314,10 +2326,10 @@
         <v>80</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2331,10 +2343,10 @@
         <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2345,13 +2357,13 @@
         <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2362,13 +2374,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2382,10 +2394,10 @@
         <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2399,10 +2411,10 @@
         <v>46</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2416,10 +2428,10 @@
         <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,10 +2445,10 @@
         <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2450,10 +2462,10 @@
         <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2467,10 +2479,10 @@
         <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2484,10 +2496,10 @@
         <v>85</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2501,10 +2513,10 @@
         <v>86</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2518,10 +2530,10 @@
         <v>5</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,10 +2547,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2552,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2569,10 +2581,10 @@
         <v>87</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2586,10 +2598,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,13 +2612,13 @@
         <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,13 +2629,13 @@
         <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2637,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,10 +2666,10 @@
         <v>75</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2668,13 +2680,13 @@
         <v>89</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2688,10 +2700,10 @@
         <v>92</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2699,537 +2711,537 @@
         <v>93</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>94</v>
+        <v>379</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="C57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E62" t="s">
         <v>131</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E62" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>268</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="D75" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>304</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="D81" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>338</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>76</v>
@@ -3238,13 +3250,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>76</v>
@@ -3253,64 +3265,64 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>349</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>76</v>
@@ -3319,81 +3331,81 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>76</v>
@@ -3402,57 +3414,58 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="D95" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>379</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>